--- a/EL SALVADOR/Género/EHPM 2017 2018 2019/Tabla Consolidada 17 18 19.xlsx
+++ b/EL SALVADOR/Género/EHPM 2017 2018 2019/Tabla Consolidada 17 18 19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Género\EHPM 2017 2018 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABED70D-A64F-4513-BA66-8B1B2031D3DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDDF9F4-6755-4DFF-BF08-488B34436A36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="465" windowWidth="13515" windowHeight="11385" firstSheet="6" activeTab="9" xr2:uid="{AB712669-BC77-460D-B6F7-22184E746837}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AB712669-BC77-460D-B6F7-22184E746837}"/>
   </bookViews>
   <sheets>
     <sheet name="Población" sheetId="1" r:id="rId1"/>
@@ -2095,6 +2095,133 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2126,780 +2253,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF231F20"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF231F20"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3757,6 +3110,94 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4254,6 +3695,565 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF231F20"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4687,142 +4687,142 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DF5AD8C-CD3D-6D42-B1C3-90490BECE272}" name="Densidad_poblacional" displayName="Densidad_poblacional" ref="A1:E46" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DF5AD8C-CD3D-6D42-B1C3-90490BECE272}" name="Densidad_poblacional" displayName="Densidad_poblacional" ref="A1:E46" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" dataCellStyle="Normal 2">
   <autoFilter ref="A1:E46" xr:uid="{31EFC2E0-083D-524C-A847-1F7E94EB7A5F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6968760B-3F36-0541-8D5E-C03085AB5962}" name="Departamento" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{A0D8DBBC-D0D3-46DB-86B8-C0869006ED95}" name="Año" dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{618D2EAB-88C6-B846-BA14-FD7A83C152EC}" name="Población" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{0233E68E-2091-4941-8A0C-5A4E0916A8A4}" name="Extensión en Km²" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{92811377-96C7-4A42-986D-D4450E5F0B4D}" name="Habitantes por Km²" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{6968760B-3F36-0541-8D5E-C03085AB5962}" name="Departamento" dataDxfId="83" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{A0D8DBBC-D0D3-46DB-86B8-C0869006ED95}" name="Año" dataDxfId="82" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{618D2EAB-88C6-B846-BA14-FD7A83C152EC}" name="Población" dataDxfId="81" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{0233E68E-2091-4941-8A0C-5A4E0916A8A4}" name="Extensión en Km²" dataDxfId="80" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{92811377-96C7-4A42-986D-D4450E5F0B4D}" name="Habitantes por Km²" dataDxfId="79" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BFD1EC8-5017-2842-8917-68305EB58FFB}" name="Abadono_padres_madres_motivo" displayName="Abadono_padres_madres_motivo" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BFD1EC8-5017-2842-8917-68305EB58FFB}" name="Abadono_padres_madres_motivo" displayName="Abadono_padres_madres_motivo" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E28" xr:uid="{713A04E6-76CB-E945-8F11-1E3F3E351CC9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF3FE459-982A-ED45-BB77-4C4D8613CC7C}" name="Motivo" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{285F26D6-5189-480A-8329-FDB6AFD318B0}" name="Año" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{63BA35CC-62D5-3F4C-8E98-14DD85696DEA}" name="Pariente que abandonó" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{189EF873-BD78-494D-AD44-C6A14122FDE7}" name="Frecuencia" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{64E10D49-BF18-4542-B755-6617A4764B2C}" name="Porcentaje" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BF3FE459-982A-ED45-BB77-4C4D8613CC7C}" name="Motivo" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{285F26D6-5189-480A-8329-FDB6AFD318B0}" name="Año" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{63BA35CC-62D5-3F4C-8E98-14DD85696DEA}" name="Pariente que abandonó" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{189EF873-BD78-494D-AD44-C6A14122FDE7}" name="Frecuencia" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{64E10D49-BF18-4542-B755-6617A4764B2C}" name="Porcentaje" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F0D424A-70C7-0E49-928D-4FED9490E914}" name="Alfabetización_2018" displayName="Alfabetización_2018" ref="A1:G37" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F0D424A-70C7-0E49-928D-4FED9490E914}" name="Alfabetización_2018" displayName="Alfabetización_2018" ref="A1:G37" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="A1:G37" xr:uid="{9D945D0B-17C9-5441-A44D-F5E6674C81D6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9697044F-1D75-8D49-8FE6-7E5B961F61D3}" name="Sexo y grupos de edad" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{9C45588A-3E8D-442A-BC13-0B4BD657145D}" name="Año" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{953BF509-3D43-D04D-81DB-A5BB94CC1F5E}" name="Sexo" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{30D74CCD-31CA-144B-B52E-B49D2D7DA134}" name="Alfabetas" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{85B9116B-C250-2249-A21F-071917A84B00}" name="Analfabetas" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{499B4946-E7CE-A84C-B34C-92CACA85A7DA}" name="Tasa de alfabetización" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{7CC3DF8D-5459-E341-A42A-53EF21A9D302}" name="Tasa de analfabetismo" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{9697044F-1D75-8D49-8FE6-7E5B961F61D3}" name="Sexo y grupos de edad" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{9C45588A-3E8D-442A-BC13-0B4BD657145D}" name="Año" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{953BF509-3D43-D04D-81DB-A5BB94CC1F5E}" name="Sexo" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{30D74CCD-31CA-144B-B52E-B49D2D7DA134}" name="Alfabetas" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{85B9116B-C250-2249-A21F-071917A84B00}" name="Analfabetas" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{499B4946-E7CE-A84C-B34C-92CACA85A7DA}" name="Tasa de alfabetización" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{7CC3DF8D-5459-E341-A42A-53EF21A9D302}" name="Tasa de analfabetismo" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30B0801C-E030-EB4B-9C5D-CBB9D03DEBFB}" name="Porcentaje_repeticion_grado_escuela_mas4_años" displayName="Porcentaje_repeticion_grado_escuela_mas4_años" ref="A1:E31" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30B0801C-E030-EB4B-9C5D-CBB9D03DEBFB}" name="Porcentaje_repeticion_grado_escuela_mas4_años" displayName="Porcentaje_repeticion_grado_escuela_mas4_años" ref="A1:E31" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
   <autoFilter ref="A1:E31" xr:uid="{573D945D-7F4B-234E-884B-CDD40F67925B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{08D4390D-7D6A-C940-8265-62167EFDBDBE}" name="Desagregación" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{2A609EE8-6FE7-4F6B-8FA7-6807BFEAE27D}" name="Año" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{C7D207CB-B7F7-B347-A68E-2A2974D84CB0}" name="Primaria" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{860F64AA-4C20-D048-93DA-C5C4CBCF44C6}" name="Tercer ciclo" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{12C7D8F6-07BD-3B4D-9E3B-062991CEAB9F}" name="Educación media" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{08D4390D-7D6A-C940-8265-62167EFDBDBE}" name="Desagregación" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{2A609EE8-6FE7-4F6B-8FA7-6807BFEAE27D}" name="Año" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{C7D207CB-B7F7-B347-A68E-2A2974D84CB0}" name="Primaria" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{860F64AA-4C20-D048-93DA-C5C4CBCF44C6}" name="Tercer ciclo" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{12C7D8F6-07BD-3B4D-9E3B-062991CEAB9F}" name="Educación media" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{54FBD0AE-F8AF-014D-83F9-0504B337E875}" name="Escolaridad_2018" displayName="Escolaridad_2018" ref="A2:E38" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{54FBD0AE-F8AF-014D-83F9-0504B337E875}" name="Escolaridad_2018" displayName="Escolaridad_2018" ref="A2:E38" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A2:E38" xr:uid="{3210623A-82FF-9641-995B-6B8BC0F89765}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E41BEE6A-3CDA-E84C-B5F1-76F271FAB79E}" name="Año" dataDxfId="73"/>
-    <tableColumn id="13" xr3:uid="{894D7FFA-99B3-4111-915D-996BC4FD1251}" name="Urbanización" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{82E0A67F-C5E2-44FB-8583-23F2E7E84202}" name="Total Nacional" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{36BD443A-A8E1-9C4E-85BE-C96D215CC73C}" name="Hombres Nacional" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{DE8073C2-DA0D-9042-BDC3-D686987CBD9C}" name="Mujeres Nacional" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{E41BEE6A-3CDA-E84C-B5F1-76F271FAB79E}" name="Año" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{894D7FFA-99B3-4111-915D-996BC4FD1251}" name="Urbanización" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{82E0A67F-C5E2-44FB-8583-23F2E7E84202}" name="Total Nacional" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{36BD443A-A8E1-9C4E-85BE-C96D215CC73C}" name="Hombres Nacional" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{DE8073C2-DA0D-9042-BDC3-D686987CBD9C}" name="Mujeres Nacional" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC145CCE-9647-464A-B2D0-3DFD10FDB189}" name="Promedio_salarial_por_sexo_años_de_estudio" displayName="Promedio_salarial_por_sexo_años_de_estudio" ref="A1:E22" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC145CCE-9647-464A-B2D0-3DFD10FDB189}" name="Promedio_salarial_por_sexo_años_de_estudio" displayName="Promedio_salarial_por_sexo_años_de_estudio" ref="A1:E22" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <autoFilter ref="A1:E22" xr:uid="{9934D937-DBC8-6D43-AF64-B108A95C2B90}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EEA6C2DA-0E63-A14B-A83B-1A38DDE5546A}" name="Años de estudio_x000a_aprobados" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{B620F9A2-1B69-4287-99D5-4B196E99BD75}" name="Año" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{D29EBDE4-F515-5345-A762-68FA08669F56}" name="Total" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6ED6068E-5A07-E948-AB7B-BED9A4957930}" name="Hombre" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{F1D4C2BA-3208-134C-A6ED-37CA9999DEC6}" name="Mujer" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{EEA6C2DA-0E63-A14B-A83B-1A38DDE5546A}" name="Años de estudio_x000a_aprobados" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{B620F9A2-1B69-4287-99D5-4B196E99BD75}" name="Año" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{D29EBDE4-F515-5345-A762-68FA08669F56}" name="Total" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{6ED6068E-5A07-E948-AB7B-BED9A4957930}" name="Hombre" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{F1D4C2BA-3208-134C-A6ED-37CA9999DEC6}" name="Mujer" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E42BE12F-D247-F74B-842E-FC1D801B99C3}" name="salario" displayName="salario" ref="A1:E19" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E42BE12F-D247-F74B-842E-FC1D801B99C3}" name="salario" displayName="salario" ref="A1:E19" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
   <autoFilter ref="A1:E19" xr:uid="{2D6909F7-40C8-7C44-88DF-0B79D529E3C8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E7FEBAFD-DDAA-7748-8645-77304BF84FD5}" name="Años de estudio_x000a_aprobados" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{E979B896-1FC2-46A9-9265-4CBFCF3C58D2}" name="Año" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{E8142C76-F8EF-0646-B775-6923EDBF9045}" name="Total" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{92C73A5D-B025-134E-A055-5AB6F2FD1228}" name="Hombre" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{7EC01B2A-FC15-FC4A-BAB5-D7D2B2DE94D2}" name="Mujer" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{E7FEBAFD-DDAA-7748-8645-77304BF84FD5}" name="Años de estudio_x000a_aprobados" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{E979B896-1FC2-46A9-9265-4CBFCF3C58D2}" name="Año" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E8142C76-F8EF-0646-B775-6923EDBF9045}" name="Total" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{92C73A5D-B025-134E-A055-5AB6F2FD1228}" name="Hombre" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{7EC01B2A-FC15-FC4A-BAB5-D7D2B2DE94D2}" name="Mujer" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EC8A0B82-CA50-0542-808F-F4901E420675}" name="Salario_promedio_dolares_por_sexo_actividad" displayName="Salario_promedio_dolares_por_sexo_actividad" ref="A1:E46" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EC8A0B82-CA50-0542-808F-F4901E420675}" name="Salario_promedio_dolares_por_sexo_actividad" displayName="Salario_promedio_dolares_por_sexo_actividad" ref="A1:E46" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:E46" xr:uid="{90E8D618-77D2-194D-84D6-8967E3711558}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0501A252-D555-A642-8D0E-933D71F5C9EE}" name="Rama de actividad económica" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{48734AE0-5B6C-49B2-829F-A1CC17A97413}" name="Año" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{0090AF0A-98CA-EF49-A676-46F449080EF1}" name="Total" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{AA2C5E5F-1FE5-564D-A3A5-9E69AC3B06D2}" name="Hombre" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{7C6295CC-6E46-5A46-9BC7-DE723567AE58}" name="Mujer" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{0501A252-D555-A642-8D0E-933D71F5C9EE}" name="Rama de actividad económica" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{48734AE0-5B6C-49B2-829F-A1CC17A97413}" name="Año" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{0090AF0A-98CA-EF49-A676-46F449080EF1}" name="Total" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{AA2C5E5F-1FE5-564D-A3A5-9E69AC3B06D2}" name="Hombre" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7C6295CC-6E46-5A46-9BC7-DE723567AE58}" name="Mujer" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{40A39950-1EDF-2B49-B89A-7140A3C3F03F}" name="salario_promedio_dolares_por_sexo_grupo_ocupacional" displayName="salario_promedio_dolares_por_sexo_grupo_ocupacional" ref="A1:E34" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{40A39950-1EDF-2B49-B89A-7140A3C3F03F}" name="salario_promedio_dolares_por_sexo_grupo_ocupacional" displayName="salario_promedio_dolares_por_sexo_grupo_ocupacional" ref="A1:E34" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:E34" xr:uid="{2DFA9AD7-B5B7-2D4B-9652-E191063E8B51}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FDE9BE50-2D02-5F47-BB69-549DA2C70B3B}" name="Grupo ocupacional" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{6C9539FE-D278-4393-A99A-6F224710C7A7}" name="Año" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{43680AEA-819C-AB4F-AA7D-E4D510F2A270}" name="Total" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{A320D077-2696-3042-B577-E2FCE577804C}" name="Hombre" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{2B092016-A8FD-2D4A-87DC-30FB76306A01}" name="Mujer" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{FDE9BE50-2D02-5F47-BB69-549DA2C70B3B}" name="Grupo ocupacional" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{6C9539FE-D278-4393-A99A-6F224710C7A7}" name="Año" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{43680AEA-819C-AB4F-AA7D-E4D510F2A270}" name="Total" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A320D077-2696-3042-B577-E2FCE577804C}" name="Hombre" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{2B092016-A8FD-2D4A-87DC-30FB76306A01}" name="Mujer" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F516D3CA-0027-804F-BCF7-1A92AFA0D9E1}" name="Trabajo_infantil_por_sexo_categorias_tasa_absoluto" displayName="Trabajo_infantil_por_sexo_categorias_tasa_absoluto" ref="A2:E47" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F516D3CA-0027-804F-BCF7-1A92AFA0D9E1}" name="Trabajo_infantil_por_sexo_categorias_tasa_absoluto" displayName="Trabajo_infantil_por_sexo_categorias_tasa_absoluto" ref="A2:E47" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:E47" xr:uid="{38FF18D0-69B3-EB4C-B4B9-0D34CF4F0722}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8020A3D9-0C66-E848-95D9-EE05A2F5DA4B}" name="Categorías" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{3799FDBE-78ED-4FE0-AB8F-62CFBF2CC7A0}" name="Año" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{14CBA88B-A25C-470F-BCA7-056A5912E68B}" name="Sexo" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{1B7AE31C-31A8-664A-BB48-2FF2870F3378}" name="Valor absoluto" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A6CF1FE9-660D-5847-8552-24F9183BD279}" name="Porcentaje" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{8020A3D9-0C66-E848-95D9-EE05A2F5DA4B}" name="Categorías" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{3799FDBE-78ED-4FE0-AB8F-62CFBF2CC7A0}" name="Año" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{14CBA88B-A25C-470F-BCA7-056A5912E68B}" name="Sexo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1B7AE31C-31A8-664A-BB48-2FF2870F3378}" name="Valor absoluto" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A6CF1FE9-660D-5847-8552-24F9183BD279}" name="Porcentaje" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5127,7 +5127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CF5D26-39AA-432A-A853-EB77A92CED15}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -5953,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613C11D6-A8A3-46C7-A37D-F0833C96A5D8}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -6460,7 +6460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E60E024-49B4-40D9-8BB7-9F5411B1F8BC}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -7936,7 +7936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1740E420-59E3-4A2D-AE20-91B5B93E5298}">
   <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -8602,7 +8602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A058A57D-A0F4-4F71-B273-22D07F926B59}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/EL SALVADOR/Género/EHPM 2017 2018 2019/Tabla Consolidada 17 18 19.xlsx
+++ b/EL SALVADOR/Género/EHPM 2017 2018 2019/Tabla Consolidada 17 18 19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Género\EHPM 2017 2018 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDDF9F4-6755-4DFF-BF08-488B34436A36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75314DE-9BF6-4E2B-8662-4E2199C560D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AB712669-BC77-460D-B6F7-22184E746837}"/>
+    <workbookView xWindow="795" yWindow="1770" windowWidth="13515" windowHeight="11385" activeTab="6" xr2:uid="{AB712669-BC77-460D-B6F7-22184E746837}"/>
   </bookViews>
   <sheets>
     <sheet name="Población" sheetId="1" r:id="rId1"/>
@@ -8602,7 +8602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A058A57D-A0F4-4F71-B273-22D07F926B59}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -9360,8 +9360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADB0D8B-5129-488A-9284-A316806BCB72}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9905,7 +9905,7 @@
         <v>159</v>
       </c>
       <c r="B32" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C32" s="60">
         <v>344.29</v>
@@ -9922,7 +9922,7 @@
         <v>95</v>
       </c>
       <c r="B33" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C33" s="60">
         <v>180.94</v>
@@ -9939,7 +9939,7 @@
         <v>96</v>
       </c>
       <c r="B34" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C34" s="60">
         <v>186.8</v>
@@ -9956,7 +9956,7 @@
         <v>97</v>
       </c>
       <c r="B35" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C35" s="60">
         <v>246.26</v>
@@ -9973,7 +9973,7 @@
         <v>98</v>
       </c>
       <c r="B36" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C36" s="60">
         <v>272.33</v>
@@ -9990,7 +9990,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C37" s="60">
         <v>320.97000000000003</v>
@@ -10007,7 +10007,7 @@
         <v>100</v>
       </c>
       <c r="B38" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C38" s="60">
         <v>324.64</v>
@@ -10024,7 +10024,7 @@
         <v>101</v>
       </c>
       <c r="B39" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C39" s="60">
         <v>344.98</v>
@@ -10041,7 +10041,7 @@
         <v>102</v>
       </c>
       <c r="B40" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C40" s="60">
         <v>378.89</v>
@@ -10058,7 +10058,7 @@
         <v>103</v>
       </c>
       <c r="B41" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C41" s="60">
         <v>404.34</v>
@@ -10075,7 +10075,7 @@
         <v>104</v>
       </c>
       <c r="B42" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C42" s="60">
         <v>409.97</v>
@@ -10092,7 +10092,7 @@
         <v>105</v>
       </c>
       <c r="B43" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C43" s="60">
         <v>472.55</v>
@@ -10109,7 +10109,7 @@
         <v>106</v>
       </c>
       <c r="B44" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C44" s="60">
         <v>536.28</v>
@@ -10126,7 +10126,7 @@
         <v>107</v>
       </c>
       <c r="B45" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C45" s="60">
         <v>633.11</v>
@@ -10143,7 +10143,7 @@
         <v>108</v>
       </c>
       <c r="B46" s="30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C46" s="62">
         <v>652.92999999999995</v>
